--- a/biology/Botanique/Findling/Findling.xlsx
+++ b/biology/Botanique/Findling/Findling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  findling  est un cépage de cuve allemand de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une mutation du cépage Müller-Thurgau observé par Franz Kimmig à Oberkirch en 1971. Le cépage est autorisé dans de nombreux Länder en Allemagne. Le cépage est peu multiplié et la superficie plantée est de 40 hectares en 2001.
 </t>
@@ -543,7 +557,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque moyenne: 7 - 8  jours après  le chasselas.
 </t>
@@ -574,7 +590,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage donne des vins blancs moins aromatique que le Müller-Thurgau et qui vieillissent plus vite.
 Le findling possède une croissance et un taux d’alcool plus faible que le Müller-Thurgau, ce qui explique, que le cépage n’a pas de succès.
@@ -606,7 +624,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">non connu
 </t>
